--- a/tecan_update/plate_mapper/input.xlsx
+++ b/tecan_update/plate_mapper/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phall3\Desktop\plate_mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\tecan_update\plate_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D75CAEE-BBA4-43B5-9F3B-D546BB9DB4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BE414-03C7-4D2B-B961-24982BB29D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F18C33-7F28-4500-9CE0-2860C03F3810}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>150</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="D2">
         <v>400</v>
@@ -474,7 +474,7 @@
         <v>250</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>400</v>
@@ -491,7 +491,7 @@
         <v>175</v>
       </c>
       <c r="C4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D4">
         <v>400</v>
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>400</v>

--- a/tecan_update/plate_mapper/input.xlsx
+++ b/tecan_update/plate_mapper/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\tecan_update\plate_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BE414-03C7-4D2B-B961-24982BB29D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1F48FD-AF7A-4744-BCA9-53342D2920F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1F18C33-7F28-4500-9CE0-2860C03F3810}"/>
+    <workbookView xWindow="4695" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{A1F18C33-7F28-4500-9CE0-2860C03F3810}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sample</t>
   </si>
@@ -47,25 +47,76 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>number of guides</t>
   </si>
   <si>
     <t>Concentration nanograms</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K7</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>K10</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>K12</t>
   </si>
 </sst>
 </file>
@@ -417,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1714789D-87B4-4A15-9B57-7E2F49CCC7B8}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,98 +491,387 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>1500</v>
+        <v>315.89999999999998</v>
       </c>
       <c r="D2">
         <v>400</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>77441</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>350.8</v>
       </c>
       <c r="D3">
         <v>400</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>77441</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>175</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>378.7</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>77441</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>315.8</v>
       </c>
       <c r="D5">
         <v>400</v>
       </c>
       <c r="E5">
-        <v>5000</v>
+        <v>77441</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="C6">
+        <v>442.5</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>333.2</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>405.3</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>255.4</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>338.8</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>218</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1200</v>
+      </c>
+      <c r="C12">
+        <v>184.4</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1200</v>
+      </c>
+      <c r="C15">
+        <v>122.1</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
+      </c>
+      <c r="E15">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>119.2</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>491.3</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>464.5</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>370.8</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+      <c r="E19">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>484.9</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>5000</v>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>77441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23">
+        <v>214.7</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>77441</v>
       </c>
     </row>
   </sheetData>
